--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>70.99</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.02</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.81</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1485,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.02</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1501,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3.81</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1634,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.02</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="5">
@@ -1517,14 +1650,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="6">
@@ -1533,14 +1666,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -1549,13 +1682,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,101 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2184</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -602,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3250</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -640,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -678,36 +520,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -742,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -772,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>001703</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>银华沪港深增长股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2746</t>
+          <t>0.1184</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -810,36 +694,130 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>014364</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>银华沪港深增长股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.37</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +852,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,26 +892,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9745</t>
+          <t>1.4747</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -952,26 +930,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9745</t>
+          <t>1.4747</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -990,26 +968,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5107</t>
+          <t>0.5141</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1033,21 +1011,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3872</t>
+          <t>0.2137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1066,26 +1044,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>0.1295</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1098,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1160,26 +1138,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.45</t>
+          <t>29.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>76.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4747</t>
+          <t>0.9745</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1198,26 +1176,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.45</t>
+          <t>29.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>76.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4747</t>
+          <t>0.9745</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1236,26 +1214,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5141</t>
+          <t>0.5107</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1279,21 +1257,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2137</t>
+          <t>0.3872</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1312,26 +1290,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>87.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1295</t>
+          <t>0.1714</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1340,100 +1318,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1460,7 +1344,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1490,32 +1374,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001703</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1184</t>
+          <t>0.2746</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1528,36 +1412,206 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014364</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>96.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1571,144 +1625,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.22</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.81</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.02</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票</t>
+          <t>银华沪港深增长股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1184</t>
+          <t>0.0892</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -817,252 +966,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012519</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成核心趋势混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4747</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012520</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成核心趋势混合型证券投资基金D</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4747</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009715</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5141</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2137</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1295</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1098,7 +1001,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1138,26 +1041,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9745</t>
+          <t>1.4747</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1176,26 +1079,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9745</t>
+          <t>1.4747</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1214,26 +1117,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5107</t>
+          <t>0.5141</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1257,21 +1160,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3872</t>
+          <t>0.2137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1290,26 +1193,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>0.1295</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1318,6 +1221,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1449,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1619,7 +1768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00826-天工国际.xlsx
+++ b/数据整理/stocks/港股/00826-天工国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.81</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.02</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +794,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.44</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0892</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +822,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>015026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华增华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>014364</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>银华沪港深增长股票C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华增华混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -810,27 +997,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票</t>
+          <t>银华沪港深增长股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1184</t>
+          <t>0.0892</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -853,22 +1040,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -881,6 +1068,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -966,252 +1285,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012519</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成核心趋势混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4747</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012520</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成核心趋势混合型证券投资基金D</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4747</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009715</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5141</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2137</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1295</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1247,7 +1320,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1287,26 +1360,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9745</t>
+          <t>1.4747</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1325,26 +1398,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9745</t>
+          <t>1.4747</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1363,26 +1436,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5107</t>
+          <t>0.5141</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1406,21 +1479,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3872</t>
+          <t>0.2137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1439,26 +1512,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>0.1295</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1467,6 +1540,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1598,7 +1917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1766,98 +2085,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2184</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>